--- a/content/ratings.xlsx
+++ b/content/ratings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/pg/content/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1AAE87-4712-504A-A6E9-6F0777EC0DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EEC425-C931-3E4D-8042-29B893E43847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440" xr2:uid="{A83AC6C1-ACFB-F64B-8D70-3311AD6D01D2}"/>
+    <workbookView xWindow="1120" yWindow="560" windowWidth="27680" windowHeight="17440" xr2:uid="{A83AC6C1-ACFB-F64B-8D70-3311AD6D01D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{E1C4CBD9-3D15-1C4F-9BEF-5D9DA5892252}" name="ratings" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/alecramsay/Documents/dev/pg/content/ratings.csv" comma="1">
+    <textPr sourceFile="/Users/alecramsay/Documents/dev/pg/content/ratings.csv" comma="1">
       <textFields count="7">
         <textField type="text"/>
         <textField type="text"/>
@@ -576,16 +576,15 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1:F1048576"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
   </cols>
@@ -828,19 +827,19 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="D11">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E11">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G11">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1150,19 +1149,19 @@
         <v>11</v>
       </c>
       <c r="C25">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D25">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E25">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F25">
         <v>100</v>
       </c>
       <c r="G25">
-        <v>65</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1173,16 +1172,16 @@
         <v>12</v>
       </c>
       <c r="C26">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D26">
         <v>38</v>
       </c>
       <c r="E26">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F26">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G26">
         <v>99</v>
@@ -1889,16 +1888,16 @@
         <v>100</v>
       </c>
       <c r="D57">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E57">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G57">
-        <v>77</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -1909,19 +1908,19 @@
         <v>9</v>
       </c>
       <c r="C58">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D58">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="G58">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -2832,16 +2831,16 @@
         <v>100</v>
       </c>
       <c r="D98">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E98">
         <v>0</v>
       </c>
       <c r="F98">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G98">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
@@ -3269,16 +3268,16 @@
         <v>100</v>
       </c>
       <c r="D117">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="E117">
         <v>100</v>
       </c>
       <c r="F117">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="G117">
-        <v>66</v>
+        <v>99</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
@@ -3289,19 +3288,19 @@
         <v>9</v>
       </c>
       <c r="C118">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="D118">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E118">
         <v>100</v>
       </c>
       <c r="F118">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="G118">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
@@ -3315,16 +3314,16 @@
         <v>100</v>
       </c>
       <c r="D119">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="E119">
         <v>100</v>
       </c>
       <c r="F119">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="G119">
-        <v>66</v>
+        <v>99</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
@@ -3335,10 +3334,10 @@
         <v>11</v>
       </c>
       <c r="C120">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D120">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="E120">
         <v>100</v>
@@ -3347,7 +3346,7 @@
         <v>100</v>
       </c>
       <c r="G120">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
@@ -3749,19 +3748,19 @@
         <v>9</v>
       </c>
       <c r="C138">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="D138">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E138">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F138">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G138">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
@@ -3795,19 +3794,19 @@
         <v>11</v>
       </c>
       <c r="C140">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D140">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E140">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="F140">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="G140">
-        <v>70</v>
+        <v>29</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
